--- a/Lab 2/rect_q6_stepData.xlsx
+++ b/Lab 2/rect_q6_stepData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="11">
   <si>
     <t>TestNumber</t>
   </si>
@@ -68,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -86,11 +86,37 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -102,6 +128,32 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,42 +168,42 @@
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.5703125" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="14.7109375" customWidth="true"/>
     <col min="5" max="5" width="17.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="35" t="s">
         <v>10</v>
       </c>
     </row>
@@ -159,7 +211,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -176,7 +228,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -193,7 +245,7 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C5">
@@ -210,7 +262,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -227,7 +279,7 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C7">
@@ -244,7 +296,7 @@
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C8">
@@ -261,7 +313,7 @@
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C9">
@@ -278,7 +330,7 @@
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C10">
@@ -295,7 +347,7 @@
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C11">
@@ -312,7 +364,7 @@
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C12">
@@ -329,7 +381,7 @@
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C13">
@@ -346,7 +398,7 @@
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C14">
@@ -363,7 +415,7 @@
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C15">
@@ -380,7 +432,7 @@
       <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C16">
@@ -397,7 +449,7 @@
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C17">
@@ -414,7 +466,7 @@
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C18">
@@ -431,7 +483,7 @@
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C19">
@@ -448,7 +500,7 @@
       <c r="A20">
         <v>5</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C20">
@@ -465,7 +517,7 @@
       <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C21">
@@ -482,7 +534,7 @@
       <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C22">
@@ -499,143 +551,143 @@
       <c r="A23">
         <v>6</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>10.123987954109907</v>
+        <v>5.4913079049438238</v>
       </c>
       <c r="D23">
         <v>5.1194995008409023</v>
       </c>
       <c r="E23">
-        <v>65.660675972700119</v>
+        <v>7.0081076743081212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
         <v>6</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C24">
-        <v>1.2455020593479276</v>
+        <v>1.2483502679970115</v>
       </c>
       <c r="D24">
         <v>1.2125533118378371</v>
       </c>
       <c r="E24">
-        <v>2.6808791984803975</v>
+        <v>2.9092530407942832</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
         <v>6</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C25">
-        <v>0.075579652460874058</v>
+        <v>0.085309321846580133</v>
       </c>
       <c r="D25">
         <v>0.07882298735785298</v>
       </c>
       <c r="E25">
-        <v>4.2011391799896955</v>
+        <v>7.903787518851459</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
         <v>6</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C26">
-        <v>5.9197840103879571</v>
+        <v>5.9197892649099231</v>
       </c>
       <c r="D26">
         <v>5.7811120003461838</v>
       </c>
       <c r="E26">
-        <v>2.3702801987528801</v>
+        <v>2.3703689412213862</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
         <v>7</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>0.045099550792656373</v>
+        <v>0.00035753005653305081</v>
       </c>
       <c r="D27">
         <v>0.0055774744396330789</v>
       </c>
       <c r="E27">
-        <v>155.97630751132965</v>
+        <v>175.90363702178001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
         <v>7</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C28">
-        <v>1.1862859008833766</v>
+        <v>1.2453975605312735</v>
       </c>
       <c r="D28">
         <v>1.286633713869378</v>
       </c>
       <c r="E28">
-        <v>8.1157359406352043</v>
+        <v>3.2571598677895963</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
         <v>7</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C29">
-        <v>0.11213961026805919</v>
+        <v>0.13795244280481711</v>
       </c>
       <c r="D29">
         <v>0.13190888188546523</v>
       </c>
       <c r="E29">
-        <v>16.20110122486949</v>
+        <v>4.4790122620761395</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
         <v>7</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C30">
-        <v>8.4086657017469406</v>
+        <v>8.4086624328047037</v>
       </c>
       <c r="D30">
         <v>8.2833190001547337</v>
       </c>
       <c r="E30">
-        <v>1.5018789512105286</v>
+        <v>1.5018400736153126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
         <v>8</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C31">
@@ -652,7 +704,7 @@
       <c r="A32">
         <v>8</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C32">
@@ -669,7 +721,7 @@
       <c r="A33">
         <v>8</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C33">
@@ -686,7 +738,7 @@
       <c r="A34">
         <v>8</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C34">
@@ -703,7 +755,7 @@
       <c r="A35">
         <v>9</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
@@ -720,7 +772,7 @@
       <c r="A36">
         <v>9</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C36">
@@ -737,7 +789,7 @@
       <c r="A37">
         <v>9</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C37">
@@ -754,7 +806,7 @@
       <c r="A38">
         <v>9</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C38">
